--- a/~test1_cs.xlsx
+++ b/~test1_cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="19140" activeTab="1"/>
+    <workbookView windowWidth="28000" windowHeight="16840"/>
   </bookViews>
   <sheets>
     <sheet name="test1_001" sheetId="1" r:id="rId1"/>
@@ -14,116 +14,20 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>miles</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t>miles:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-本行为字段名</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t>miles:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-本行为字段在C#中的数据类型</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>miles</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t>miles:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-本行为字段名</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t>miles:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-本行为字段在C#中的数据类型</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>bool[]</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -143,16 +47,22 @@
     <t>rate</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>bool[]</t>
+    <t>第几天</t>
+  </si>
+  <si>
+    <t>签到名称</t>
+  </si>
+  <si>
+    <t>任务类型</t>
+  </si>
+  <si>
+    <t>道具ID</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>倍率(百分位)</t>
   </si>
   <si>
     <t>第1天</t>
@@ -187,10 +97,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -214,6 +124,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -222,6 +178,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -229,130 +193,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,139 +277,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,43 +457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,6 +476,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,6 +509,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,30 +554,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -663,145 +573,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1134,10 +1044,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1154,99 +1064,81 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="1" s="1" customFormat="1" spans="9:9">
       <c r="I1"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="I3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>201</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>201</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
         <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>201</v>
@@ -1255,16 +1147,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I5"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:9">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -1273,19 +1165,19 @@
         <v>201</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:9">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
@@ -1297,16 +1189,16 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I7"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:9">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1315,19 +1207,19 @@
         <v>201</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I8"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:9">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -1339,25 +1231,66 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I9"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:9">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>201</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:9">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>201</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1374,99 +1307,81 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="1" s="1" customFormat="1" spans="9:9">
       <c r="I1"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="I3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>201</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>201</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
         <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>201</v>
@@ -1475,16 +1390,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I5"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:9">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -1493,19 +1408,19 @@
         <v>201</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:9">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
@@ -1517,16 +1432,16 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I7"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:9">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1535,19 +1450,19 @@
         <v>201</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I8"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:9">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -1559,14 +1474,55 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I9"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:9">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>201</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:9">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>201</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/~test1_cs.xlsx
+++ b/~test1_cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="16840"/>
+    <workbookView windowHeight="18460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test1_001" sheetId="1" r:id="rId1"/>
@@ -97,10 +97,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -125,17 +125,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,9 +139,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,106 +208,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,61 +277,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,121 +457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,15 +476,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,16 +505,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +536,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -553,165 +568,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1044,10 +1044,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1064,81 +1064,99 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="9:9">
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="I1"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I2"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
+      <c r="A4" s="1">
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>201</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I4"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>201</v>
@@ -1147,16 +1165,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I5"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:9">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -1168,16 +1186,16 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:9">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
@@ -1186,19 +1204,19 @@
         <v>201</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I7"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:9">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1207,19 +1225,19 @@
         <v>201</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:9">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -1237,10 +1255,10 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:9">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
@@ -1252,30 +1270,9 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I10"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:9">
-      <c r="A11" s="1">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>201</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1287,10 +1284,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1307,81 +1304,99 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="9:9">
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="I1"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I2"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
+      <c r="A4" s="1">
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>201</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I4"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>201</v>
@@ -1390,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I5"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:9">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -1411,16 +1426,16 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:9">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
@@ -1429,19 +1444,19 @@
         <v>201</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I7"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:9">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1450,19 +1465,19 @@
         <v>201</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:9">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -1480,10 +1495,10 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:9">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
@@ -1495,30 +1510,9 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I10"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:9">
-      <c r="A11" s="1">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>201</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
